--- a/Logistic OS/TempDocs/Ports.xlsx
+++ b/Logistic OS/TempDocs/Ports.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ports" sheetId="1" r:id="rId1"/>
     <sheet name="Chapter List" sheetId="2" r:id="rId2"/>
     <sheet name="Cargo" sheetId="3" r:id="rId3"/>
+    <sheet name="Month" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>PORT</t>
   </si>
@@ -117,6 +118,81 @@
   </si>
   <si>
     <t>KALININGRAD</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>Сентябрь</t>
+  </si>
+  <si>
+    <t>Январь</t>
+  </si>
+  <si>
+    <t>Февраль</t>
+  </si>
+  <si>
+    <t>Март</t>
+  </si>
+  <si>
+    <t>Апрель</t>
+  </si>
+  <si>
+    <t>Май</t>
+  </si>
+  <si>
+    <t>Июнь</t>
+  </si>
+  <si>
+    <t>Июль</t>
+  </si>
+  <si>
+    <t>Август</t>
+  </si>
+  <si>
+    <t>Октябрь</t>
+  </si>
+  <si>
+    <t>Ноябрь</t>
+  </si>
+  <si>
+    <t>Декабрь</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Okt</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
@@ -446,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -634,4 +710,124 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>